--- a/analysis_specifications/analysis3.xlsx
+++ b/analysis_specifications/analysis3.xlsx
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1914,7 +1914,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Acute Myocardial Infarction</t>
+          <t>Acute Myocardial Infarction including its complications</t>
         </is>
       </c>
       <c r="C122">

--- a/analysis_specifications/analysis3.xlsx
+++ b/analysis_specifications/analysis3.xlsx
@@ -867,7 +867,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2205,167 +2205,167 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Diarrhea3</t>
+          <t>Genitourinary infection3</t>
         </is>
       </c>
       <c r="C103">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Genitourinary infection3</t>
+          <t>Hypoglycemia</t>
         </is>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Hypoglycemia</t>
+          <t>Joint pain3</t>
         </is>
       </c>
       <c r="C105">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Hypotension</t>
+          <t>Lower extremity amputation</t>
         </is>
       </c>
       <c r="C106">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Joint pain3</t>
+          <t>Nausea3</t>
         </is>
       </c>
       <c r="C107">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Lower extremity amputation</t>
+          <t>Peripheral edema</t>
         </is>
       </c>
       <c r="C108">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Nausea3</t>
+          <t>Photosensitivity</t>
         </is>
       </c>
       <c r="C109">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Peripheral edema</t>
+          <t>Renal Cancer</t>
         </is>
       </c>
       <c r="C110">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Photosensitivity</t>
+          <t>Thyroid tumor</t>
         </is>
       </c>
       <c r="C111">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Renal Cancer</t>
+          <t>Venous thromboembolism</t>
         </is>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Thyroid tumor</t>
+          <t>Vomiting</t>
         </is>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1005</v>
+        <v>1075</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Venous thromboembolism</t>
+          <t>Narcolepsy</t>
         </is>
       </c>
       <c r="C114">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1006</v>
+        <v>1076</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>Anaphylaxis</t>
         </is>
       </c>
       <c r="C115">
@@ -2374,76 +2374,76 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Narcolepsy</t>
+          <t>Anaphylaxis v2</t>
         </is>
       </c>
       <c r="C116">
-        <v>365</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Anaphylaxis</t>
+          <t>Bells Palsy</t>
         </is>
       </c>
       <c r="C117">
-        <v>30</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Anaphylaxis v2</t>
+          <t>Encephalomyelitis</t>
         </is>
       </c>
       <c r="C118">
-        <v>30</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Bells Palsy</t>
+          <t>Guillain Barre Syndrome</t>
         </is>
       </c>
       <c r="C119">
-        <v>183</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Encephalomyelitis</t>
+          <t>Acute Myocardial Infarction including its complications</t>
         </is>
       </c>
       <c r="C120">
-        <v>183</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Guillain Barre Syndrome</t>
+          <t>Myocarditis Pericarditis</t>
         </is>
       </c>
       <c r="C121">
@@ -2452,11 +2452,11 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Acute Myocardial Infarction including its complications</t>
+          <t>Immune Thrombocytopenia (ITP)</t>
         </is>
       </c>
       <c r="C122">
@@ -2465,11 +2465,11 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Myocarditis Pericarditis</t>
+          <t>Disseminated Intravascular Coagulation</t>
         </is>
       </c>
       <c r="C123">
@@ -2478,11 +2478,11 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Immune Thrombocytopenia (ITP)</t>
+          <t>Appendicitis</t>
         </is>
       </c>
       <c r="C124">
@@ -2491,11 +2491,11 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Disseminated Intravascular Coagulation</t>
+          <t>Transverse Myelitis</t>
         </is>
       </c>
       <c r="C125">
@@ -2504,11 +2504,11 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Appendicitis</t>
+          <t>Hemorrhagic Stroke</t>
         </is>
       </c>
       <c r="C126">
@@ -2517,11 +2517,11 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transverse Myelitis</t>
+          <t>Deep Vein Thrombosis (DVT)</t>
         </is>
       </c>
       <c r="C127">
@@ -2530,11 +2530,11 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Hemorrhagic Stroke</t>
+          <t>Non-hemorrhagic Stroke</t>
         </is>
       </c>
       <c r="C128">
@@ -2543,11 +2543,11 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
+          <t>Pulmonary Embolism</t>
         </is>
       </c>
       <c r="C129">
@@ -2556,40 +2556,14 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Non-hemorrhagic Stroke</t>
+          <t>Thrombosis with Thrombocytopenia (TWT)</t>
         </is>
       </c>
       <c r="C130">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>1090</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Pulmonary Embolism</t>
-        </is>
-      </c>
-      <c r="C131">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>1091</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Thrombosis with Thrombocytopenia (TWT)</t>
-        </is>
-      </c>
-      <c r="C132">
         <v>365</v>
       </c>
     </row>
